--- a/Partir/partir.xlsx
+++ b/Partir/partir.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement_1\Documents\Test\Partir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cchardin\Documents\Test\Partir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10485" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10490" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="partir" sheetId="1" r:id="rId1"/>
@@ -2628,7 +2628,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -3447,64 +3447,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3525,62 +3493,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Milliers" xfId="43" builtinId="3"/>
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
+    <cellStyle name="Neutre" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="14" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -3741,7 +3741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4003,35 +4003,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="11.140625" style="7" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="6"/>
-    <col min="11" max="11" width="9.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="9.140625" style="18"/>
-    <col min="14" max="14" width="9.140625" style="83"/>
-    <col min="15" max="16" width="9.140625" style="91"/>
-    <col min="17" max="17" width="9.140625" style="96"/>
-    <col min="18" max="22" width="9.140625" style="83"/>
-    <col min="23" max="23" width="9.140625" style="9"/>
-    <col min="24" max="27" width="9.140625" style="6"/>
-    <col min="28" max="28" width="9.140625" style="8"/>
-    <col min="34" max="34" width="9.140625" style="8"/>
-    <col min="35" max="37" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="9.1796875" style="7"/>
+    <col min="5" max="5" width="11.1796875" style="7" customWidth="1"/>
+    <col min="6" max="10" width="9.1796875" style="6"/>
+    <col min="11" max="11" width="9.1796875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="6"/>
+    <col min="13" max="13" width="9.1796875" style="18"/>
+    <col min="14" max="14" width="9.1796875" style="83"/>
+    <col min="15" max="16" width="9.1796875" style="91"/>
+    <col min="17" max="17" width="9.1796875" style="96"/>
+    <col min="18" max="22" width="9.1796875" style="83"/>
+    <col min="23" max="23" width="9.1796875" style="9"/>
+    <col min="24" max="27" width="9.1796875" style="6"/>
+    <col min="28" max="28" width="9.1796875" style="8"/>
+    <col min="34" max="34" width="9.1796875" style="8"/>
+    <col min="35" max="37" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" s="2" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>395</v>
       </c>
@@ -4074,46 +4073,46 @@
       <c r="N1" s="82" t="s">
         <v>862</v>
       </c>
-      <c r="O1" s="136" t="s">
+      <c r="O1" s="108" t="s">
         <v>404</v>
       </c>
-      <c r="P1" s="136" t="s">
+      <c r="P1" s="108" t="s">
         <v>405</v>
       </c>
-      <c r="Q1" s="117" t="s">
+      <c r="Q1" s="130" t="s">
         <v>866</v>
       </c>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="128" t="s">
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="120" t="s">
         <v>406</v>
       </c>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="131" t="s">
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="123" t="s">
         <v>407</v>
       </c>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="128" t="s">
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="120" t="s">
         <v>420</v>
       </c>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="130"/>
-    </row>
-    <row r="2" spans="1:40" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="122"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="46" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>33</v>
       </c>
@@ -4245,10 +4244,10 @@
       <c r="F4" s="42">
         <v>2</v>
       </c>
-      <c r="G4" s="123">
+      <c r="G4" s="114">
         <v>14</v>
       </c>
-      <c r="H4" s="123" t="b">
+      <c r="H4" s="114" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="42">
@@ -4260,10 +4259,10 @@
       <c r="K4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="121">
+      <c r="M4" s="119">
         <v>9.7799999999999994</v>
       </c>
       <c r="N4" s="84" t="s">
@@ -4329,20 +4328,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="46" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="42"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="121"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="119"/>
       <c r="N5" s="85"/>
       <c r="O5" s="85"/>
       <c r="P5" s="85"/>
@@ -4373,7 +4372,7 @@
       <c r="AJ5" s="47"/>
       <c r="AK5" s="47"/>
     </row>
-    <row r="6" spans="1:40" s="25" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>33</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -4503,7 +4502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -4522,7 +4521,7 @@
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="113">
         <v>16</v>
       </c>
       <c r="H8" s="6" t="b">
@@ -4537,13 +4536,13 @@
       <c r="K8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="109" t="s">
+      <c r="L8" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="110">
+      <c r="M8" s="112">
         <v>10.11</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="133" t="s">
         <v>14</v>
       </c>
       <c r="O8" s="84">
@@ -4613,13 +4612,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="G9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="108"/>
+      <c r="G9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="133"/>
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="98"/>
@@ -4636,7 +4635,7 @@
       <c r="AJ9" s="30"/>
       <c r="AK9" s="30"/>
     </row>
-    <row r="10" spans="1:40" s="46" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>33</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -4752,8 +4751,8 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="N11" s="84"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="137"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
       <c r="Q11" s="99" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>33</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42" t="s">
         <v>33</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>33</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -5184,10 +5183,10 @@
       <c r="F17" s="6">
         <v>5</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="113">
         <v>14</v>
       </c>
-      <c r="H17" s="109" t="b">
+      <c r="H17" s="113" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="6">
@@ -5199,13 +5198,13 @@
       <c r="K17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="109" t="s">
+      <c r="L17" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="110">
+      <c r="M17" s="112">
         <v>9.94</v>
       </c>
-      <c r="N17" s="108" t="s">
+      <c r="N17" s="133" t="s">
         <v>1</v>
       </c>
       <c r="O17" s="84">
@@ -5275,14 +5274,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="108"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="133"/>
       <c r="O18" s="87"/>
       <c r="P18" s="87"/>
       <c r="Q18" s="98"/>
@@ -5313,7 +5312,7 @@
       <c r="AJ18" s="30"/>
       <c r="AK18" s="30"/>
     </row>
-    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -5679,10 +5678,10 @@
       <c r="F23" s="6">
         <v>8</v>
       </c>
-      <c r="G23" s="109">
+      <c r="G23" s="113">
         <v>18</v>
       </c>
-      <c r="H23" s="109" t="b">
+      <c r="H23" s="113" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="6">
@@ -5694,13 +5693,13 @@
       <c r="K23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="109" t="s">
+      <c r="L23" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="110">
+      <c r="M23" s="112">
         <v>9.81</v>
       </c>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="133" t="s">
         <v>5</v>
       </c>
       <c r="O23" s="84">
@@ -5764,14 +5763,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="108"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="133"/>
       <c r="O24" s="87"/>
       <c r="P24" s="87"/>
       <c r="Q24" s="98"/>
@@ -5796,7 +5795,7 @@
       <c r="AJ24" s="30"/>
       <c r="AK24" s="30"/>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>33</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>33</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
@@ -6090,7 +6089,7 @@
       <c r="F29" s="6">
         <v>3</v>
       </c>
-      <c r="G29" s="109">
+      <c r="G29" s="113">
         <v>10</v>
       </c>
       <c r="H29" s="6" t="b">
@@ -6105,13 +6104,13 @@
       <c r="K29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="109" t="s">
+      <c r="L29" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="110">
+      <c r="M29" s="112">
         <v>10.52</v>
       </c>
-      <c r="N29" s="108" t="s">
+      <c r="N29" s="133" t="s">
         <v>1</v>
       </c>
       <c r="O29" s="84">
@@ -6169,13 +6168,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
-      <c r="G30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="108"/>
+      <c r="G30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="133"/>
       <c r="O30" s="87"/>
       <c r="P30" s="87"/>
       <c r="Q30" s="98"/>
@@ -6195,7 +6194,7 @@
       <c r="AJ30" s="30"/>
       <c r="AK30" s="30"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
@@ -6208,10 +6207,10 @@
       <c r="E31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="109">
-        <v>10</v>
-      </c>
-      <c r="G31" s="109">
+      <c r="F31" s="113">
+        <v>10</v>
+      </c>
+      <c r="G31" s="113">
         <v>25</v>
       </c>
       <c r="H31" s="6" t="b">
@@ -6226,19 +6225,19 @@
       <c r="K31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="109" t="s">
+      <c r="L31" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="M31" s="110">
+      <c r="M31" s="112">
         <v>8.81</v>
       </c>
       <c r="N31" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="137">
+      <c r="O31" s="109">
         <v>50</v>
       </c>
-      <c r="P31" s="137">
+      <c r="P31" s="109">
         <v>5</v>
       </c>
       <c r="Q31" s="99" t="s">
@@ -6286,13 +6285,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="110"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="112"/>
       <c r="N32" s="87"/>
       <c r="O32" s="87"/>
       <c r="P32" s="87"/>
@@ -6311,7 +6310,7 @@
       <c r="AJ32" s="30"/>
       <c r="AK32" s="30"/>
     </row>
-    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -6376,7 +6375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -6471,7 +6470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>33</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>33</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
@@ -6662,8 +6661,8 @@
         <v>9.26</v>
       </c>
       <c r="N37" s="84"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="137"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="109"/>
       <c r="Q37" s="99" t="s">
         <v>0</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -6736,7 +6735,7 @@
       <c r="F38" s="6">
         <v>7</v>
       </c>
-      <c r="G38" s="109">
+      <c r="G38" s="113">
         <v>18</v>
       </c>
       <c r="H38" s="6" t="b">
@@ -6751,13 +6750,13 @@
       <c r="K38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="109" t="s">
+      <c r="L38" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="M38" s="110">
+      <c r="M38" s="112">
         <v>10.59</v>
       </c>
-      <c r="N38" s="108" t="s">
+      <c r="N38" s="133" t="s">
         <v>13</v>
       </c>
       <c r="O38" s="84">
@@ -6821,11 +6820,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="108"/>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="G39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="133"/>
       <c r="O39" s="87"/>
       <c r="P39" s="87"/>
       <c r="Q39" s="98"/>
@@ -6852,7 +6851,7 @@
       <c r="AJ39" s="14"/>
       <c r="AK39" s="14"/>
     </row>
-    <row r="40" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="42" t="s">
         <v>33</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="42" t="s">
         <v>33</v>
       </c>
@@ -7031,7 +7030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>33</v>
       </c>
@@ -7044,7 +7043,7 @@
       <c r="F42" s="6">
         <v>7</v>
       </c>
-      <c r="G42" s="109">
+      <c r="G42" s="113">
         <v>17</v>
       </c>
       <c r="H42" s="6" t="b">
@@ -7059,13 +7058,13 @@
       <c r="K42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="109" t="s">
+      <c r="L42" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="M42" s="110">
+      <c r="M42" s="112">
         <v>9.85</v>
       </c>
-      <c r="N42" s="108" t="s">
+      <c r="N42" s="133" t="s">
         <v>22</v>
       </c>
       <c r="O42" s="84">
@@ -7126,13 +7125,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
-      <c r="G43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="108"/>
+      <c r="G43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="133"/>
       <c r="O43" s="87"/>
       <c r="P43" s="87"/>
       <c r="Q43" s="98"/>
@@ -7155,7 +7154,7 @@
       <c r="AJ43" s="30"/>
       <c r="AK43" s="30"/>
     </row>
-    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42" t="s">
         <v>33</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>33</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
@@ -7532,7 +7531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>33</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
         <v>33</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
         <v>33</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:40" s="79" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="74" t="s">
         <v>33</v>
       </c>
@@ -7799,7 +7798,7 @@
       <c r="AJ52" s="80"/>
       <c r="AK52" s="80"/>
     </row>
-    <row r="53" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>33</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>33</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>33</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>33</v>
       </c>
@@ -8096,7 +8095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>33</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>33</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>33</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>33</v>
       </c>
@@ -8359,7 +8358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
@@ -8372,13 +8371,13 @@
       <c r="E61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="109">
-        <v>11</v>
-      </c>
-      <c r="G61" s="109">
+      <c r="F61" s="113">
+        <v>11</v>
+      </c>
+      <c r="G61" s="113">
         <v>20</v>
       </c>
-      <c r="H61" s="109" t="b">
+      <c r="H61" s="113" t="b">
         <v>1</v>
       </c>
       <c r="I61" s="6">
@@ -8390,13 +8389,13 @@
       <c r="K61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L61" s="109" t="s">
+      <c r="L61" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="M61" s="110">
+      <c r="M61" s="112">
         <v>9.44</v>
       </c>
-      <c r="N61" s="108" t="s">
+      <c r="N61" s="133" t="s">
         <v>23</v>
       </c>
       <c r="O61" s="84">
@@ -8460,15 +8459,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="109"/>
-      <c r="H62" s="109"/>
-      <c r="L62" s="109"/>
-      <c r="M62" s="110"/>
-      <c r="N62" s="108"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="112"/>
+      <c r="N62" s="133"/>
       <c r="O62" s="87"/>
       <c r="P62" s="87"/>
       <c r="Q62" s="98"/>
@@ -8486,7 +8485,7 @@
       <c r="AJ62" s="35"/>
       <c r="AK62" s="35"/>
     </row>
-    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>33</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>33</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:40" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>33</v>
       </c>
@@ -8699,7 +8698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>16</v>
       </c>
@@ -8831,7 +8830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>16</v>
       </c>
@@ -8889,45 +8888,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="109" t="s">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A69" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="109" t="s">
+      <c r="B69" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109" t="s">
+      <c r="C69" s="113"/>
+      <c r="D69" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="109" t="s">
+      <c r="E69" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="109">
+      <c r="F69" s="113">
         <v>8</v>
       </c>
-      <c r="G69" s="109">
+      <c r="G69" s="113">
         <v>25</v>
       </c>
-      <c r="H69" s="109" t="b">
+      <c r="H69" s="113" t="b">
         <v>0</v>
       </c>
-      <c r="I69" s="109">
+      <c r="I69" s="113">
         <v>135</v>
       </c>
-      <c r="J69" s="109">
+      <c r="J69" s="113">
         <v>14</v>
       </c>
-      <c r="K69" s="109" t="s">
+      <c r="K69" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L69" s="109" t="s">
+      <c r="L69" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="M69" s="110">
+      <c r="M69" s="112">
         <v>10.17</v>
       </c>
-      <c r="N69" s="108" t="s">
+      <c r="N69" s="133" t="s">
         <v>18</v>
       </c>
       <c r="O69" s="84">
@@ -8981,31 +8980,31 @@
       <c r="AK69" s="126" t="s">
         <v>413</v>
       </c>
-      <c r="AL69" s="132">
-        <v>10</v>
-      </c>
-      <c r="AM69" s="132">
+      <c r="AL69" s="124">
+        <v>10</v>
+      </c>
+      <c r="AM69" s="124">
         <v>12</v>
       </c>
-      <c r="AN69" s="133">
+      <c r="AN69" s="125">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="109"/>
-      <c r="L70" s="109"/>
-      <c r="M70" s="110"/>
-      <c r="N70" s="108"/>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A70" s="113"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="112"/>
+      <c r="N70" s="133"/>
       <c r="O70" s="87"/>
       <c r="P70" s="87"/>
       <c r="Q70" s="98"/>
@@ -9035,25 +9034,25 @@
       <c r="AI70" s="127"/>
       <c r="AJ70" s="126"/>
       <c r="AK70" s="126"/>
-      <c r="AL70" s="132"/>
-      <c r="AM70" s="132"/>
-      <c r="AN70" s="133"/>
-    </row>
-    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL70" s="124"/>
+      <c r="AM70" s="124"/>
+      <c r="AN70" s="125"/>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
-      <c r="G71" s="109"/>
+      <c r="G71" s="113"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
-      <c r="L71" s="109"/>
-      <c r="M71" s="110"/>
-      <c r="N71" s="108"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="112"/>
+      <c r="N71" s="133"/>
       <c r="O71" s="87"/>
       <c r="P71" s="87"/>
       <c r="Q71" s="98"/>
@@ -9082,7 +9081,7 @@
       <c r="AM71" s="31"/>
       <c r="AN71" s="29"/>
     </row>
-    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>16</v>
       </c>
@@ -9147,7 +9146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="21" t="s">
         <v>16</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>16</v>
       </c>
@@ -9240,7 +9239,7 @@
       <c r="F74" s="6">
         <v>7</v>
       </c>
-      <c r="G74" s="109">
+      <c r="G74" s="113">
         <v>22</v>
       </c>
       <c r="H74" s="6" t="b">
@@ -9255,13 +9254,13 @@
       <c r="K74" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L74" s="109" t="s">
+      <c r="L74" s="113" t="s">
         <v>104</v>
       </c>
       <c r="M74" s="18">
         <v>11.41</v>
       </c>
-      <c r="N74" s="108" t="s">
+      <c r="N74" s="133" t="s">
         <v>11</v>
       </c>
       <c r="O74" s="84">
@@ -9328,13 +9327,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
-      <c r="G75" s="109"/>
-      <c r="L75" s="109"/>
+      <c r="G75" s="113"/>
+      <c r="L75" s="113"/>
       <c r="M75" s="63"/>
-      <c r="N75" s="108"/>
+      <c r="N75" s="133"/>
       <c r="Q75" s="103"/>
       <c r="R75" s="91"/>
       <c r="S75" s="91"/>
@@ -9356,7 +9355,7 @@
       <c r="AJ75" s="30"/>
       <c r="AK75" s="30"/>
     </row>
-    <row r="76" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="21" t="s">
         <v>16</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>16</v>
       </c>
@@ -9676,7 +9675,7 @@
       <c r="F80" s="6">
         <v>7</v>
       </c>
-      <c r="G80" s="109">
+      <c r="G80" s="113">
         <v>16</v>
       </c>
       <c r="H80" s="6" t="b">
@@ -9691,13 +9690,13 @@
       <c r="K80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L80" s="109" t="s">
+      <c r="L80" s="113" t="s">
         <v>109</v>
       </c>
       <c r="M80" s="18">
         <v>11.62</v>
       </c>
-      <c r="N80" s="108" t="s">
+      <c r="N80" s="133" t="s">
         <v>13</v>
       </c>
       <c r="O80" s="84">
@@ -9758,13 +9757,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
-      <c r="G81" s="109"/>
-      <c r="L81" s="109"/>
+      <c r="G81" s="113"/>
+      <c r="L81" s="113"/>
       <c r="M81" s="63"/>
-      <c r="N81" s="108"/>
+      <c r="N81" s="133"/>
       <c r="Q81" s="103"/>
       <c r="R81" s="91"/>
       <c r="S81" s="91"/>
@@ -9780,7 +9779,7 @@
       <c r="AJ81" s="39"/>
       <c r="AK81" s="39"/>
     </row>
-    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>16</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>16</v>
       </c>
@@ -9927,7 +9926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>16</v>
       </c>
@@ -9988,7 +9987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>16</v>
       </c>
@@ -10004,7 +10003,7 @@
       <c r="F85" s="6">
         <v>8</v>
       </c>
-      <c r="G85" s="109">
+      <c r="G85" s="113">
         <v>19</v>
       </c>
       <c r="H85" s="6" t="b">
@@ -10019,13 +10018,13 @@
       <c r="K85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="109" t="s">
+      <c r="L85" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="M85" s="110">
+      <c r="M85" s="112">
         <v>9.1</v>
       </c>
-      <c r="N85" s="108" t="s">
+      <c r="N85" s="133" t="s">
         <v>24</v>
       </c>
       <c r="O85" s="84">
@@ -10092,13 +10091,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
-      <c r="G86" s="109"/>
-      <c r="L86" s="109"/>
-      <c r="M86" s="110"/>
-      <c r="N86" s="108"/>
+      <c r="G86" s="113"/>
+      <c r="L86" s="113"/>
+      <c r="M86" s="112"/>
+      <c r="N86" s="133"/>
       <c r="O86" s="87"/>
       <c r="P86" s="87"/>
       <c r="Q86" s="98"/>
@@ -10122,7 +10121,7 @@
       <c r="AJ86" s="30"/>
       <c r="AK86" s="30"/>
     </row>
-    <row r="87" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="21" t="s">
         <v>16</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="21" t="s">
         <v>16</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>16</v>
       </c>
@@ -10340,7 +10339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>16</v>
       </c>
@@ -10353,7 +10352,7 @@
       <c r="F90" s="6">
         <v>9</v>
       </c>
-      <c r="G90" s="109">
+      <c r="G90" s="113">
         <v>19</v>
       </c>
       <c r="H90" s="6" t="b">
@@ -10368,13 +10367,13 @@
       <c r="K90" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L90" s="109" t="s">
+      <c r="L90" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="M90" s="110">
+      <c r="M90" s="112">
         <v>9.34</v>
       </c>
-      <c r="N90" s="108" t="s">
+      <c r="N90" s="133" t="s">
         <v>12</v>
       </c>
       <c r="O90" s="84">
@@ -10441,11 +10440,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G91" s="109"/>
-      <c r="L91" s="109"/>
-      <c r="M91" s="110"/>
-      <c r="N91" s="108"/>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="G91" s="113"/>
+      <c r="L91" s="113"/>
+      <c r="M91" s="112"/>
+      <c r="N91" s="133"/>
       <c r="O91" s="87"/>
       <c r="P91" s="87"/>
       <c r="Q91" s="98"/>
@@ -10472,7 +10471,7 @@
       <c r="AJ91" s="14"/>
       <c r="AK91" s="14"/>
     </row>
-    <row r="92" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>16</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21" t="s">
         <v>16</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>16</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>16</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>16</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>16</v>
       </c>
@@ -10923,7 +10922,7 @@
       <c r="F99" s="6">
         <v>9</v>
       </c>
-      <c r="G99" s="109">
+      <c r="G99" s="113">
         <v>20</v>
       </c>
       <c r="H99" s="6" t="b">
@@ -10938,13 +10937,13 @@
       <c r="K99" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L99" s="109" t="s">
+      <c r="L99" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="M99" s="110">
+      <c r="M99" s="112">
         <v>9.48</v>
       </c>
-      <c r="N99" s="108" t="s">
+      <c r="N99" s="133" t="s">
         <v>13</v>
       </c>
       <c r="O99" s="84">
@@ -11011,11 +11010,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G100" s="109"/>
-      <c r="L100" s="109"/>
-      <c r="M100" s="110"/>
-      <c r="N100" s="108"/>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="G100" s="113"/>
+      <c r="L100" s="113"/>
+      <c r="M100" s="112"/>
+      <c r="N100" s="133"/>
       <c r="O100" s="87"/>
       <c r="P100" s="87"/>
       <c r="Q100" s="98"/>
@@ -11046,7 +11045,7 @@
       <c r="AJ100" s="14"/>
       <c r="AK100" s="14"/>
     </row>
-    <row r="101" spans="1:40" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>16</v>
       </c>
@@ -11114,7 +11113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>31</v>
       </c>
@@ -11184,7 +11183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="42" t="s">
         <v>31</v>
       </c>
@@ -11286,31 +11285,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:40" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" s="72" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="70"/>
       <c r="E104" s="70"/>
       <c r="F104" s="16"/>
-      <c r="G104" s="109">
+      <c r="G104" s="113">
         <v>15</v>
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
-      <c r="K104" s="109" t="s">
+      <c r="K104" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="L104" s="109" t="s">
+      <c r="L104" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="M104" s="110">
+      <c r="M104" s="112">
         <v>10.33</v>
       </c>
       <c r="N104" s="94"/>
-      <c r="O104" s="138"/>
-      <c r="P104" s="138"/>
+      <c r="O104" s="110"/>
+      <c r="P104" s="110"/>
       <c r="Q104" s="94" t="s">
         <v>4</v>
       </c>
@@ -11332,7 +11331,7 @@
       <c r="AJ104" s="73"/>
       <c r="AK104" s="73"/>
     </row>
-    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>31</v>
       </c>
@@ -11351,7 +11350,7 @@
       <c r="F105" s="6">
         <v>8</v>
       </c>
-      <c r="G105" s="109"/>
+      <c r="G105" s="113"/>
       <c r="H105" s="6" t="b">
         <v>0</v>
       </c>
@@ -11361,9 +11360,9 @@
       <c r="J105" s="6">
         <v>18</v>
       </c>
-      <c r="K105" s="109"/>
-      <c r="L105" s="109"/>
-      <c r="M105" s="110"/>
+      <c r="K105" s="113"/>
+      <c r="L105" s="113"/>
+      <c r="M105" s="112"/>
       <c r="O105" s="83"/>
       <c r="P105" s="83"/>
       <c r="Q105" s="96" t="s">
@@ -11430,7 +11429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>31</v>
       </c>
@@ -11531,7 +11530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>31</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>31</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>31</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>31</v>
       </c>
@@ -11902,7 +11901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="21" t="s">
         <v>31</v>
       </c>
@@ -11979,7 +11978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="21" t="s">
         <v>31</v>
       </c>
@@ -12056,7 +12055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="42" t="s">
         <v>31</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>31</v>
       </c>
@@ -12218,7 +12217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="42" t="s">
         <v>31</v>
       </c>
@@ -12318,7 +12317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>31</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>31</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>31</v>
       </c>
@@ -12561,7 +12560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>31</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>31</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>31</v>
       </c>
@@ -12772,7 +12771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="42" t="s">
         <v>31</v>
       </c>
@@ -12867,7 +12866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>31</v>
       </c>
@@ -12925,7 +12924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="42" t="s">
         <v>31</v>
       </c>
@@ -13014,7 +13013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="21" t="s">
         <v>31</v>
       </c>
@@ -13089,7 +13088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>31</v>
       </c>
@@ -13163,7 +13162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="21" t="s">
         <v>31</v>
       </c>
@@ -13240,7 +13239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>31</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="42" t="s">
         <v>31</v>
       </c>
@@ -13421,7 +13420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="42" t="s">
         <v>31</v>
       </c>
@@ -13501,7 +13500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="21" t="s">
         <v>31</v>
       </c>
@@ -13578,7 +13577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="42" t="s">
         <v>31</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="42" t="s">
         <v>31</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>31</v>
       </c>
@@ -13822,10 +13821,10 @@
       <c r="N134" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="O134" s="138">
+      <c r="O134" s="110">
         <v>50</v>
       </c>
-      <c r="P134" s="139">
+      <c r="P134" s="111">
         <v>6</v>
       </c>
       <c r="Q134" s="99" t="s">
@@ -13881,7 +13880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>31</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="42" t="s">
         <v>31</v>
       </c>
@@ -14079,7 +14078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>31</v>
       </c>
@@ -14134,7 +14133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="21" t="s">
         <v>31</v>
       </c>
@@ -14211,7 +14210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>31</v>
       </c>
@@ -14285,7 +14284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>31</v>
       </c>
@@ -14353,7 +14352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>31</v>
       </c>
@@ -14427,7 +14426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>31</v>
       </c>
@@ -14501,7 +14500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>31</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>31</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>31</v>
       </c>
@@ -14669,7 +14668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>31</v>
       </c>
@@ -14758,7 +14757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>31</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>31</v>
       </c>
@@ -14871,7 +14870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>31</v>
       </c>
@@ -14926,7 +14925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>31</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>31</v>
       </c>
@@ -15094,7 +15093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="42" t="s">
         <v>32</v>
       </c>
@@ -15187,7 +15186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>32</v>
       </c>
@@ -15245,7 +15244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>32</v>
       </c>
@@ -15319,7 +15318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>32</v>
       </c>
@@ -15332,7 +15331,7 @@
       <c r="F155" s="6">
         <v>7</v>
       </c>
-      <c r="G155" s="109">
+      <c r="G155" s="113">
         <v>19</v>
       </c>
       <c r="H155" s="6" t="b">
@@ -15347,13 +15346,13 @@
       <c r="K155" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L155" s="109" t="s">
+      <c r="L155" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="M155" s="110">
+      <c r="M155" s="112">
         <v>10.42</v>
       </c>
-      <c r="N155" s="108" t="s">
+      <c r="N155" s="133" t="s">
         <v>24</v>
       </c>
       <c r="O155" s="84">
@@ -15420,13 +15419,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
-      <c r="G156" s="109"/>
-      <c r="L156" s="109"/>
-      <c r="M156" s="110"/>
-      <c r="N156" s="108"/>
+      <c r="G156" s="113"/>
+      <c r="L156" s="113"/>
+      <c r="M156" s="112"/>
+      <c r="N156" s="133"/>
       <c r="O156" s="87"/>
       <c r="P156" s="87"/>
       <c r="Q156" s="98"/>
@@ -15444,7 +15443,7 @@
       <c r="AJ156" s="30"/>
       <c r="AK156" s="30"/>
     </row>
-    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>32</v>
       </c>
@@ -15460,10 +15459,10 @@
       <c r="F157" s="6">
         <v>6</v>
       </c>
-      <c r="G157" s="109">
+      <c r="G157" s="113">
         <v>17</v>
       </c>
-      <c r="H157" s="109" t="b">
+      <c r="H157" s="113" t="b">
         <v>1</v>
       </c>
       <c r="I157" s="6">
@@ -15475,13 +15474,13 @@
       <c r="K157" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L157" s="109" t="s">
+      <c r="L157" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="M157" s="110">
+      <c r="M157" s="112">
         <v>10.210000000000001</v>
       </c>
-      <c r="N157" s="108" t="s">
+      <c r="N157" s="133" t="s">
         <v>14</v>
       </c>
       <c r="O157" s="84">
@@ -15548,14 +15547,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D158" s="29"/>
       <c r="E158" s="29"/>
-      <c r="G158" s="109"/>
-      <c r="H158" s="109"/>
-      <c r="L158" s="109"/>
-      <c r="M158" s="110"/>
-      <c r="N158" s="108"/>
+      <c r="G158" s="113"/>
+      <c r="H158" s="113"/>
+      <c r="L158" s="113"/>
+      <c r="M158" s="112"/>
+      <c r="N158" s="133"/>
       <c r="O158" s="87"/>
       <c r="P158" s="87"/>
       <c r="Q158" s="98"/>
@@ -15576,7 +15575,7 @@
       <c r="AJ158" s="30"/>
       <c r="AK158" s="30"/>
     </row>
-    <row r="159" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="21" t="s">
         <v>32</v>
       </c>
@@ -15655,7 +15654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:40" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="21" t="s">
         <v>32</v>
       </c>
@@ -15725,7 +15724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>32</v>
       </c>
@@ -15741,10 +15740,10 @@
       <c r="F161" s="6">
         <v>8</v>
       </c>
-      <c r="G161" s="109">
+      <c r="G161" s="113">
         <v>19</v>
       </c>
-      <c r="H161" s="109" t="b">
+      <c r="H161" s="113" t="b">
         <v>1</v>
       </c>
       <c r="I161" s="6">
@@ -15756,13 +15755,13 @@
       <c r="K161" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L161" s="134" t="s">
+      <c r="L161" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="M161" s="110">
+      <c r="M161" s="112">
         <v>10.74</v>
       </c>
-      <c r="N161" s="108" t="s">
+      <c r="N161" s="133" t="s">
         <v>23</v>
       </c>
       <c r="O161" s="84">
@@ -15829,14 +15828,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
-      <c r="G162" s="109"/>
-      <c r="H162" s="109"/>
-      <c r="L162" s="134"/>
-      <c r="M162" s="110"/>
-      <c r="N162" s="108"/>
+      <c r="G162" s="113"/>
+      <c r="H162" s="113"/>
+      <c r="L162" s="116"/>
+      <c r="M162" s="112"/>
+      <c r="N162" s="133"/>
       <c r="O162" s="87"/>
       <c r="P162" s="87"/>
       <c r="Q162" s="98"/>
@@ -15857,7 +15856,7 @@
       <c r="AJ162" s="30"/>
       <c r="AK162" s="30"/>
     </row>
-    <row r="163" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>32</v>
       </c>
@@ -15949,7 +15948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="42" t="s">
         <v>32</v>
       </c>
@@ -16029,7 +16028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>32</v>
       </c>
@@ -16112,7 +16111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>32</v>
       </c>
@@ -16204,7 +16203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21" t="s">
         <v>32</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="21" t="s">
         <v>32</v>
       </c>
@@ -16360,7 +16359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>32</v>
       </c>
@@ -16458,7 +16457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="21" t="s">
         <v>32</v>
       </c>
@@ -16535,7 +16534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="21" t="s">
         <v>32</v>
       </c>
@@ -16612,7 +16611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>32</v>
       </c>
@@ -16683,7 +16682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>32</v>
       </c>
@@ -16769,7 +16768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>32</v>
       </c>
@@ -16837,7 +16836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="42" t="s">
         <v>32</v>
       </c>
@@ -16935,7 +16934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>32</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>32</v>
       </c>
@@ -17055,7 +17054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>32</v>
       </c>
@@ -17147,7 +17146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="42" t="s">
         <v>32</v>
       </c>
@@ -17239,7 +17238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="42" t="s">
         <v>32</v>
       </c>
@@ -17314,7 +17313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>32</v>
       </c>
@@ -17369,7 +17368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>32</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>32</v>
       </c>
@@ -17550,7 +17549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>32</v>
       </c>
@@ -17642,7 +17641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>32</v>
       </c>
@@ -17700,7 +17699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>32</v>
       </c>
@@ -17758,7 +17757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>32</v>
       </c>
@@ -17826,7 +17825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>32</v>
       </c>
@@ -17889,7 +17888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>32</v>
       </c>
@@ -17975,7 +17974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>32</v>
       </c>
@@ -18033,7 +18032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>32</v>
       </c>
@@ -18098,7 +18097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>32</v>
       </c>
@@ -18153,7 +18152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>32</v>
       </c>
@@ -18236,7 +18235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:40" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="10" t="s">
         <v>32</v>
       </c>
@@ -18304,7 +18303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="42" t="s">
         <v>30</v>
       </c>
@@ -18321,10 +18320,10 @@
       <c r="F195" s="42">
         <v>2</v>
       </c>
-      <c r="G195" s="122">
+      <c r="G195" s="117">
         <v>14</v>
       </c>
-      <c r="H195" s="122" t="b">
+      <c r="H195" s="117" t="b">
         <v>1</v>
       </c>
       <c r="I195" s="42">
@@ -18336,13 +18335,13 @@
       <c r="K195" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L195" s="122" t="s">
+      <c r="L195" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="M195" s="120">
+      <c r="M195" s="118">
         <v>10.38</v>
       </c>
-      <c r="N195" s="116" t="s">
+      <c r="N195" s="134" t="s">
         <v>0</v>
       </c>
       <c r="O195" s="84"/>
@@ -18405,21 +18404,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="42"/>
       <c r="B196" s="42"/>
       <c r="C196" s="42"/>
       <c r="D196" s="43"/>
       <c r="E196" s="43"/>
       <c r="F196" s="42"/>
-      <c r="G196" s="123"/>
-      <c r="H196" s="123"/>
+      <c r="G196" s="114"/>
+      <c r="H196" s="114"/>
       <c r="I196" s="42"/>
       <c r="J196" s="42"/>
       <c r="K196" s="42"/>
-      <c r="L196" s="123"/>
-      <c r="M196" s="121"/>
-      <c r="N196" s="108"/>
+      <c r="L196" s="114"/>
+      <c r="M196" s="119"/>
+      <c r="N196" s="133"/>
       <c r="O196" s="85"/>
       <c r="P196" s="85"/>
       <c r="Q196" s="97"/>
@@ -18443,7 +18442,7 @@
       <c r="AJ196" s="47"/>
       <c r="AK196" s="47"/>
     </row>
-    <row r="197" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>30</v>
       </c>
@@ -18538,7 +18537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>30</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>30</v>
       </c>
@@ -18689,7 +18688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="21" t="s">
         <v>30</v>
       </c>
@@ -18766,7 +18765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>30</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="21" t="s">
         <v>30</v>
       </c>
@@ -18935,7 +18934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>30</v>
       </c>
@@ -18996,7 +18995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>30</v>
       </c>
@@ -19054,7 +19053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>30</v>
       </c>
@@ -19140,7 +19139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>30</v>
       </c>
@@ -19208,7 +19207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>30</v>
       </c>
@@ -19273,7 +19272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>30</v>
       </c>
@@ -19338,7 +19337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="42" t="s">
         <v>30</v>
       </c>
@@ -19439,7 +19438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>30</v>
       </c>
@@ -19508,7 +19507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="21" t="s">
         <v>30</v>
       </c>
@@ -19585,7 +19584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>30</v>
       </c>
@@ -19601,7 +19600,7 @@
       <c r="F212" s="6">
         <v>8</v>
       </c>
-      <c r="G212" s="109">
+      <c r="G212" s="113">
         <v>23</v>
       </c>
       <c r="H212" s="6" t="b">
@@ -19616,13 +19615,13 @@
       <c r="K212" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L212" s="109" t="s">
+      <c r="L212" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="M212" s="110">
+      <c r="M212" s="112">
         <v>10.59</v>
       </c>
-      <c r="N212" s="108" t="s">
+      <c r="N212" s="133" t="s">
         <v>14</v>
       </c>
       <c r="O212" s="84">
@@ -19692,13 +19691,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D213" s="29"/>
       <c r="E213" s="29"/>
-      <c r="G213" s="109"/>
-      <c r="L213" s="109"/>
-      <c r="M213" s="110"/>
-      <c r="N213" s="108"/>
+      <c r="G213" s="113"/>
+      <c r="L213" s="113"/>
+      <c r="M213" s="112"/>
+      <c r="N213" s="133"/>
       <c r="O213" s="87"/>
       <c r="P213" s="87"/>
       <c r="Q213" s="98"/>
@@ -19725,7 +19724,7 @@
       <c r="AJ213" s="30"/>
       <c r="AK213" s="30"/>
     </row>
-    <row r="214" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="42" t="s">
         <v>30</v>
       </c>
@@ -19825,7 +19824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>30</v>
       </c>
@@ -19923,7 +19922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -19978,7 +19977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>30</v>
       </c>
@@ -20049,7 +20048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>30</v>
       </c>
@@ -20144,7 +20143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>30</v>
       </c>
@@ -20218,7 +20217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:40" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
         <v>30</v>
       </c>
@@ -20309,7 +20308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>27</v>
       </c>
@@ -20377,7 +20376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>27</v>
       </c>
@@ -20393,10 +20392,10 @@
       <c r="F222" s="6">
         <v>3</v>
       </c>
-      <c r="G222" s="109">
+      <c r="G222" s="113">
         <v>13</v>
       </c>
-      <c r="H222" s="109" t="b">
+      <c r="H222" s="113" t="b">
         <v>1</v>
       </c>
       <c r="I222" s="6">
@@ -20408,13 +20407,13 @@
       <c r="K222" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L222" s="109" t="s">
+      <c r="L222" s="113" t="s">
         <v>235</v>
       </c>
       <c r="M222" s="63">
         <v>12.07</v>
       </c>
-      <c r="N222" s="114" t="s">
+      <c r="N222" s="138" t="s">
         <v>23</v>
       </c>
       <c r="O222" s="84">
@@ -20475,14 +20474,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D223" s="29"/>
       <c r="E223" s="29"/>
-      <c r="G223" s="109"/>
-      <c r="H223" s="109"/>
-      <c r="L223" s="109"/>
+      <c r="G223" s="113"/>
+      <c r="H223" s="113"/>
+      <c r="L223" s="113"/>
       <c r="M223" s="63"/>
-      <c r="N223" s="114"/>
+      <c r="N223" s="138"/>
       <c r="Q223" s="103"/>
       <c r="R223" s="91"/>
       <c r="S223" s="91"/>
@@ -20506,7 +20505,7 @@
       <c r="AJ223" s="30"/>
       <c r="AK223" s="30"/>
     </row>
-    <row r="224" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>27</v>
       </c>
@@ -20567,7 +20566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>27</v>
       </c>
@@ -20583,7 +20582,7 @@
       <c r="F225" s="6">
         <v>9</v>
       </c>
-      <c r="G225" s="109">
+      <c r="G225" s="113">
         <v>20</v>
       </c>
       <c r="H225" s="6" t="b">
@@ -20598,19 +20597,19 @@
       <c r="K225" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L225" s="109" t="s">
+      <c r="L225" s="113" t="s">
         <v>237</v>
       </c>
       <c r="M225" s="63">
         <v>9</v>
       </c>
-      <c r="N225" s="108" t="s">
+      <c r="N225" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="O225" s="137">
+      <c r="O225" s="109">
         <v>99</v>
       </c>
-      <c r="P225" s="137">
+      <c r="P225" s="109">
         <v>3</v>
       </c>
       <c r="Q225" s="99" t="s">
@@ -20667,13 +20666,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D226" s="34"/>
       <c r="E226" s="34"/>
-      <c r="G226" s="109"/>
-      <c r="L226" s="109"/>
+      <c r="G226" s="113"/>
+      <c r="L226" s="113"/>
       <c r="M226" s="63"/>
-      <c r="N226" s="108"/>
+      <c r="N226" s="133"/>
       <c r="Q226" s="103"/>
       <c r="R226" s="91"/>
       <c r="S226" s="91"/>
@@ -20690,7 +20689,7 @@
       <c r="AJ226" s="35"/>
       <c r="AK226" s="35"/>
     </row>
-    <row r="227" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>27</v>
       </c>
@@ -20773,7 +20772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>27</v>
       </c>
@@ -20783,10 +20782,10 @@
       <c r="E228" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F228" s="109">
+      <c r="F228" s="113">
         <v>6</v>
       </c>
-      <c r="G228" s="109">
+      <c r="G228" s="113">
         <v>16</v>
       </c>
       <c r="H228" s="6" t="b">
@@ -20801,13 +20800,13 @@
       <c r="K228" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L228" s="109" t="s">
+      <c r="L228" s="113" t="s">
         <v>239</v>
       </c>
       <c r="M228" s="63">
         <v>10.17</v>
       </c>
-      <c r="N228" s="108" t="s">
+      <c r="N228" s="133" t="s">
         <v>3</v>
       </c>
       <c r="O228" s="84">
@@ -20877,12 +20876,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F229" s="109"/>
-      <c r="G229" s="109"/>
-      <c r="L229" s="109"/>
+    <row r="229" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F229" s="113"/>
+      <c r="G229" s="113"/>
+      <c r="L229" s="113"/>
       <c r="M229" s="63"/>
-      <c r="N229" s="108"/>
+      <c r="N229" s="133"/>
       <c r="Q229" s="103"/>
       <c r="R229" s="91"/>
       <c r="S229" s="91"/>
@@ -20909,7 +20908,7 @@
       <c r="AJ229" s="14"/>
       <c r="AK229" s="14"/>
     </row>
-    <row r="230" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>27</v>
       </c>
@@ -20949,10 +20948,10 @@
       <c r="N230" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="O230" s="137">
+      <c r="O230" s="109">
         <v>50</v>
       </c>
-      <c r="P230" s="137">
+      <c r="P230" s="109">
         <v>5</v>
       </c>
       <c r="Q230" s="99" t="s">
@@ -21009,7 +21008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>27</v>
       </c>
@@ -21092,7 +21091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="21" t="s">
         <v>27</v>
       </c>
@@ -21169,7 +21168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>27</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="42" t="s">
         <v>27</v>
       </c>
@@ -21324,7 +21323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="42" t="s">
         <v>27</v>
       </c>
@@ -21408,7 +21407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>27</v>
       </c>
@@ -21463,7 +21462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>27</v>
       </c>
@@ -21549,7 +21548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>27</v>
       </c>
@@ -21647,7 +21646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>27</v>
       </c>
@@ -21708,7 +21707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>27</v>
       </c>
@@ -21763,7 +21762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>27</v>
       </c>
@@ -21776,7 +21775,7 @@
       <c r="F241" s="6">
         <v>5</v>
       </c>
-      <c r="G241" s="109">
+      <c r="G241" s="113">
         <v>15</v>
       </c>
       <c r="H241" s="6" t="b">
@@ -21791,13 +21790,13 @@
       <c r="K241" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L241" s="109" t="s">
+      <c r="L241" s="113" t="s">
         <v>251</v>
       </c>
       <c r="M241" s="63">
         <v>10.29</v>
       </c>
-      <c r="N241" s="108" t="s">
+      <c r="N241" s="133" t="s">
         <v>14</v>
       </c>
       <c r="O241" s="84">
@@ -21867,11 +21866,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G242" s="109"/>
-      <c r="L242" s="109"/>
+    <row r="242" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G242" s="113"/>
+      <c r="L242" s="113"/>
       <c r="M242" s="63"/>
-      <c r="N242" s="108"/>
+      <c r="N242" s="133"/>
       <c r="Q242" s="103"/>
       <c r="R242" s="91"/>
       <c r="S242" s="91"/>
@@ -21901,7 +21900,7 @@
       <c r="AJ242" s="14"/>
       <c r="AK242" s="14"/>
     </row>
-    <row r="243" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>27</v>
       </c>
@@ -21959,7 +21958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:40" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="10" t="s">
         <v>27</v>
       </c>
@@ -22048,7 +22047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="42" t="s">
         <v>28</v>
       </c>
@@ -22150,7 +22149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="42" t="s">
         <v>28</v>
       </c>
@@ -22252,7 +22251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="21" t="s">
         <v>28</v>
       </c>
@@ -22329,7 +22328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>28</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="42" t="s">
         <v>28</v>
       </c>
@@ -22404,10 +22403,10 @@
       <c r="F249" s="42">
         <v>8</v>
       </c>
-      <c r="G249" s="123">
+      <c r="G249" s="114">
         <v>18</v>
       </c>
-      <c r="H249" s="123" t="b">
+      <c r="H249" s="114" t="b">
         <v>1</v>
       </c>
       <c r="I249" s="42">
@@ -22419,7 +22418,7 @@
       <c r="K249" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L249" s="123" t="s">
+      <c r="L249" s="114" t="s">
         <v>258</v>
       </c>
       <c r="M249" s="49">
@@ -22485,19 +22484,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="42"/>
       <c r="B250" s="42"/>
       <c r="C250" s="42"/>
       <c r="D250" s="43"/>
       <c r="E250" s="43"/>
       <c r="F250" s="42"/>
-      <c r="G250" s="123"/>
-      <c r="H250" s="123"/>
+      <c r="G250" s="114"/>
+      <c r="H250" s="114"/>
       <c r="I250" s="42"/>
       <c r="J250" s="42"/>
       <c r="K250" s="42"/>
-      <c r="L250" s="123"/>
+      <c r="L250" s="114"/>
       <c r="M250" s="64"/>
       <c r="N250" s="92"/>
       <c r="O250" s="92"/>
@@ -22522,7 +22521,7 @@
       <c r="AJ250" s="47"/>
       <c r="AK250" s="47"/>
     </row>
-    <row r="251" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="21" t="s">
         <v>28</v>
       </c>
@@ -22599,7 +22598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>28</v>
       </c>
@@ -22636,10 +22635,10 @@
       <c r="N252" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="O252" s="137">
+      <c r="O252" s="109">
         <v>50</v>
       </c>
-      <c r="P252" s="137">
+      <c r="P252" s="109">
         <v>8</v>
       </c>
       <c r="Q252" s="99" t="s">
@@ -22684,7 +22683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>28</v>
       </c>
@@ -22735,7 +22734,7 @@
       <c r="AJ253" s="62"/>
       <c r="AK253" s="62"/>
     </row>
-    <row r="254" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="42" t="s">
         <v>28</v>
       </c>
@@ -22828,7 +22827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="21" t="s">
         <v>28</v>
       </c>
@@ -22907,7 +22906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>28</v>
       </c>
@@ -22945,8 +22944,8 @@
         <v>9.42</v>
       </c>
       <c r="N256" s="84"/>
-      <c r="O256" s="137"/>
-      <c r="P256" s="137"/>
+      <c r="O256" s="109"/>
+      <c r="P256" s="109"/>
       <c r="Q256" s="99" t="s">
         <v>18</v>
       </c>
@@ -22991,7 +22990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>28</v>
       </c>
@@ -23052,7 +23051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="42" t="s">
         <v>28</v>
       </c>
@@ -23134,7 +23133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="42" t="s">
         <v>28</v>
       </c>
@@ -23151,10 +23150,10 @@
       <c r="F259" s="42">
         <v>1</v>
       </c>
-      <c r="G259" s="123">
+      <c r="G259" s="114">
         <v>12</v>
       </c>
-      <c r="H259" s="123" t="b">
+      <c r="H259" s="114" t="b">
         <v>1</v>
       </c>
       <c r="I259" s="42">
@@ -23166,7 +23165,7 @@
       <c r="K259" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L259" s="123" t="s">
+      <c r="L259" s="114" t="s">
         <v>266</v>
       </c>
       <c r="M259" s="49">
@@ -23237,19 +23236,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="42"/>
       <c r="B260" s="42"/>
       <c r="C260" s="42"/>
       <c r="D260" s="43"/>
       <c r="E260" s="43"/>
       <c r="F260" s="42"/>
-      <c r="G260" s="123"/>
-      <c r="H260" s="123"/>
+      <c r="G260" s="114"/>
+      <c r="H260" s="114"/>
       <c r="I260" s="42"/>
       <c r="J260" s="42"/>
       <c r="K260" s="42"/>
-      <c r="L260" s="123"/>
+      <c r="L260" s="114"/>
       <c r="M260" s="64"/>
       <c r="N260" s="92"/>
       <c r="O260" s="92"/>
@@ -23278,7 +23277,7 @@
       <c r="AJ260" s="47"/>
       <c r="AK260" s="47"/>
     </row>
-    <row r="261" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>28</v>
       </c>
@@ -23321,10 +23320,10 @@
       <c r="N261" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="O261" s="137">
+      <c r="O261" s="109">
         <v>123</v>
       </c>
-      <c r="P261" s="137">
+      <c r="P261" s="109">
         <v>8</v>
       </c>
       <c r="Q261" s="99" t="s">
@@ -23382,7 +23381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>28</v>
       </c>
@@ -23477,7 +23476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>28</v>
       </c>
@@ -23493,10 +23492,10 @@
       <c r="F263" s="6">
         <v>8</v>
       </c>
-      <c r="G263" s="109">
+      <c r="G263" s="113">
         <v>22</v>
       </c>
-      <c r="H263" s="109" t="b">
+      <c r="H263" s="113" t="b">
         <v>1</v>
       </c>
       <c r="I263" s="6">
@@ -23508,13 +23507,13 @@
       <c r="K263" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L263" s="109" t="s">
+      <c r="L263" s="113" t="s">
         <v>269</v>
       </c>
       <c r="M263" s="63">
         <v>10.61</v>
       </c>
-      <c r="N263" s="108" t="s">
+      <c r="N263" s="133" t="s">
         <v>22</v>
       </c>
       <c r="O263" s="84">
@@ -23572,14 +23571,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D264" s="38"/>
       <c r="E264" s="38"/>
-      <c r="G264" s="109"/>
-      <c r="H264" s="109"/>
-      <c r="L264" s="109"/>
+      <c r="G264" s="113"/>
+      <c r="H264" s="113"/>
+      <c r="L264" s="113"/>
       <c r="M264" s="63"/>
-      <c r="N264" s="108"/>
+      <c r="N264" s="133"/>
       <c r="Q264" s="103"/>
       <c r="R264" s="91"/>
       <c r="S264" s="91"/>
@@ -23598,7 +23597,7 @@
       <c r="AJ264" s="39"/>
       <c r="AK264" s="39"/>
     </row>
-    <row r="265" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="21" t="s">
         <v>28</v>
       </c>
@@ -23677,7 +23676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:40" s="79" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:40" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="74" t="s">
         <v>28</v>
       </c>
@@ -23737,7 +23736,7 @@
       <c r="AJ266" s="80"/>
       <c r="AK266" s="80"/>
     </row>
-    <row r="267" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>28</v>
       </c>
@@ -23805,7 +23804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>28</v>
       </c>
@@ -23843,8 +23842,8 @@
         <v>8.91</v>
       </c>
       <c r="N268" s="84"/>
-      <c r="O268" s="137"/>
-      <c r="P268" s="137"/>
+      <c r="O268" s="109"/>
+      <c r="P268" s="109"/>
       <c r="Q268" s="99" t="s">
         <v>3</v>
       </c>
@@ -23884,7 +23883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>28</v>
       </c>
@@ -23945,7 +23944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>28</v>
       </c>
@@ -24013,7 +24012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>28</v>
       </c>
@@ -24087,7 +24086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>28</v>
       </c>
@@ -24106,10 +24105,10 @@
       <c r="F272" s="6">
         <v>5</v>
       </c>
-      <c r="G272" s="109">
+      <c r="G272" s="113">
         <v>12</v>
       </c>
-      <c r="H272" s="109" t="b">
+      <c r="H272" s="113" t="b">
         <v>0</v>
       </c>
       <c r="I272" s="6">
@@ -24121,13 +24120,13 @@
       <c r="K272" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L272" s="109" t="s">
+      <c r="L272" s="113" t="s">
         <v>276</v>
       </c>
-      <c r="M272" s="110">
+      <c r="M272" s="112">
         <v>11.48</v>
       </c>
-      <c r="N272" s="108" t="s">
+      <c r="N272" s="133" t="s">
         <v>23</v>
       </c>
       <c r="O272" s="84">
@@ -24188,14 +24187,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D273" s="29"/>
       <c r="E273" s="29"/>
-      <c r="G273" s="109"/>
-      <c r="H273" s="109"/>
-      <c r="L273" s="109"/>
-      <c r="M273" s="110"/>
-      <c r="N273" s="108"/>
+      <c r="G273" s="113"/>
+      <c r="H273" s="113"/>
+      <c r="L273" s="113"/>
+      <c r="M273" s="112"/>
+      <c r="N273" s="133"/>
       <c r="Q273" s="103"/>
       <c r="R273" s="91"/>
       <c r="S273" s="91"/>
@@ -24215,7 +24214,7 @@
       <c r="AJ273" s="30"/>
       <c r="AK273" s="30"/>
     </row>
-    <row r="274" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>28</v>
       </c>
@@ -24271,7 +24270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>28</v>
       </c>
@@ -24339,7 +24338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>28</v>
       </c>
@@ -24425,7 +24424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>28</v>
       </c>
@@ -24480,7 +24479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>28</v>
       </c>
@@ -24563,7 +24562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>28</v>
       </c>
@@ -24618,7 +24617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:40" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="10" t="s">
         <v>28</v>
       </c>
@@ -24689,7 +24688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>380</v>
       </c>
@@ -24705,10 +24704,10 @@
       <c r="F281" s="6">
         <v>8</v>
       </c>
-      <c r="G281" s="124">
+      <c r="G281" s="129">
         <v>17</v>
       </c>
-      <c r="H281" s="124" t="b">
+      <c r="H281" s="129" t="b">
         <v>1</v>
       </c>
       <c r="I281" s="6">
@@ -24720,13 +24719,13 @@
       <c r="K281" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L281" s="124" t="s">
+      <c r="L281" s="129" t="s">
         <v>284</v>
       </c>
       <c r="M281" s="66">
         <v>10.56</v>
       </c>
-      <c r="N281" s="115" t="s">
+      <c r="N281" s="139" t="s">
         <v>15</v>
       </c>
       <c r="O281" s="84">
@@ -24784,14 +24783,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D282" s="29"/>
       <c r="E282" s="29"/>
-      <c r="G282" s="109"/>
-      <c r="H282" s="109"/>
-      <c r="L282" s="109"/>
+      <c r="G282" s="113"/>
+      <c r="H282" s="113"/>
+      <c r="L282" s="113"/>
       <c r="M282" s="63"/>
-      <c r="N282" s="114"/>
+      <c r="N282" s="138"/>
       <c r="Q282" s="103"/>
       <c r="R282" s="91"/>
       <c r="S282" s="91"/>
@@ -24813,7 +24812,7 @@
       <c r="AJ282" s="30"/>
       <c r="AK282" s="30"/>
     </row>
-    <row r="283" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>380</v>
       </c>
@@ -24832,7 +24831,7 @@
       <c r="F283" s="6">
         <v>5</v>
       </c>
-      <c r="G283" s="109">
+      <c r="G283" s="113">
         <v>14</v>
       </c>
       <c r="H283" s="6" t="b">
@@ -24847,13 +24846,13 @@
       <c r="K283" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L283" s="109" t="s">
+      <c r="L283" s="113" t="s">
         <v>285</v>
       </c>
       <c r="M283" s="63">
         <v>10.91</v>
       </c>
-      <c r="N283" s="108" t="s">
+      <c r="N283" s="133" t="s">
         <v>21</v>
       </c>
       <c r="O283" s="84">
@@ -24908,13 +24907,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D284" s="38"/>
       <c r="E284" s="38"/>
-      <c r="G284" s="109"/>
-      <c r="L284" s="109"/>
+      <c r="G284" s="113"/>
+      <c r="L284" s="113"/>
       <c r="M284" s="63"/>
-      <c r="N284" s="108"/>
+      <c r="N284" s="133"/>
       <c r="Q284" s="103"/>
       <c r="R284" s="91"/>
       <c r="S284" s="91"/>
@@ -24930,7 +24929,7 @@
       <c r="AJ284" s="39"/>
       <c r="AK284" s="39"/>
     </row>
-    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>380</v>
       </c>
@@ -25022,7 +25021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="42" t="s">
         <v>380</v>
       </c>
@@ -25121,7 +25120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="21" t="s">
         <v>380</v>
       </c>
@@ -25196,7 +25195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="42" t="s">
         <v>380</v>
       </c>
@@ -25281,7 +25280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="42" t="s">
         <v>380</v>
       </c>
@@ -25360,7 +25359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>380</v>
       </c>
@@ -25379,7 +25378,7 @@
       <c r="F290" s="6">
         <v>7</v>
       </c>
-      <c r="G290" s="109">
+      <c r="G290" s="113">
         <v>22</v>
       </c>
       <c r="H290" s="6" t="b">
@@ -25394,13 +25393,13 @@
       <c r="K290" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L290" s="109" t="s">
+      <c r="L290" s="113" t="s">
         <v>291</v>
       </c>
       <c r="M290" s="63">
         <v>10.7</v>
       </c>
-      <c r="N290" s="108" t="s">
+      <c r="N290" s="133" t="s">
         <v>21</v>
       </c>
       <c r="O290" s="84">
@@ -25461,13 +25460,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D291" s="38"/>
       <c r="E291" s="38"/>
-      <c r="G291" s="109"/>
-      <c r="L291" s="109"/>
+      <c r="G291" s="113"/>
+      <c r="L291" s="113"/>
       <c r="M291" s="63"/>
-      <c r="N291" s="108"/>
+      <c r="N291" s="133"/>
       <c r="Q291" s="103"/>
       <c r="R291" s="91"/>
       <c r="S291" s="91"/>
@@ -25485,7 +25484,7 @@
       <c r="AJ291" s="39"/>
       <c r="AK291" s="39"/>
     </row>
-    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>380</v>
       </c>
@@ -25504,7 +25503,7 @@
       <c r="F292" s="6">
         <v>8</v>
       </c>
-      <c r="G292" s="109">
+      <c r="G292" s="113">
         <v>22</v>
       </c>
       <c r="H292" s="6" t="b">
@@ -25519,13 +25518,13 @@
       <c r="K292" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L292" s="109" t="s">
+      <c r="L292" s="113" t="s">
         <v>292</v>
       </c>
       <c r="M292" s="18">
         <v>11.13</v>
       </c>
-      <c r="N292" s="108" t="s">
+      <c r="N292" s="133" t="s">
         <v>0</v>
       </c>
       <c r="O292" s="84">
@@ -25583,13 +25582,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D293" s="29"/>
       <c r="E293" s="29"/>
-      <c r="G293" s="109"/>
-      <c r="L293" s="109"/>
+      <c r="G293" s="113"/>
+      <c r="L293" s="113"/>
       <c r="M293" s="63"/>
-      <c r="N293" s="108"/>
+      <c r="N293" s="133"/>
       <c r="Q293" s="103"/>
       <c r="R293" s="91"/>
       <c r="S293" s="91"/>
@@ -25603,7 +25602,7 @@
       <c r="AJ293" s="30"/>
       <c r="AK293" s="30"/>
     </row>
-    <row r="294" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="42" t="s">
         <v>380</v>
       </c>
@@ -25702,7 +25701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:40" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:40" s="72" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="16" t="s">
         <v>380</v>
       </c>
@@ -25760,7 +25759,7 @@
       <c r="AJ295" s="73"/>
       <c r="AK295" s="73"/>
     </row>
-    <row r="296" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>380</v>
       </c>
@@ -25864,7 +25863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="21" t="s">
         <v>380</v>
       </c>
@@ -25941,7 +25940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>380</v>
       </c>
@@ -26042,7 +26041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>380</v>
       </c>
@@ -26128,7 +26127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>380</v>
       </c>
@@ -26232,7 +26231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>380</v>
       </c>
@@ -26336,7 +26335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:40" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:40" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="16" t="s">
         <v>380</v>
       </c>
@@ -26379,10 +26378,10 @@
       <c r="N302" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="O302" s="138">
+      <c r="O302" s="110">
         <v>50</v>
       </c>
-      <c r="P302" s="138">
+      <c r="P302" s="110">
         <v>6</v>
       </c>
       <c r="Q302" s="105" t="s">
@@ -26419,7 +26418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="21" t="s">
         <v>380</v>
       </c>
@@ -26498,7 +26497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="42" t="s">
         <v>380</v>
       </c>
@@ -26578,7 +26577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>380</v>
       </c>
@@ -26636,7 +26635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>380</v>
       </c>
@@ -26713,7 +26712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>380</v>
       </c>
@@ -26805,7 +26804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>380</v>
       </c>
@@ -26818,7 +26817,7 @@
       <c r="F308" s="6">
         <v>9</v>
       </c>
-      <c r="G308" s="109">
+      <c r="G308" s="113">
         <v>19</v>
       </c>
       <c r="H308" s="6" t="b">
@@ -26833,13 +26832,13 @@
       <c r="K308" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L308" s="109" t="s">
+      <c r="L308" s="113" t="s">
         <v>306</v>
       </c>
       <c r="M308" s="63">
         <v>10.23</v>
       </c>
-      <c r="N308" s="108" t="s">
+      <c r="N308" s="133" t="s">
         <v>2</v>
       </c>
       <c r="O308" s="84">
@@ -26894,13 +26893,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D309" s="38"/>
       <c r="E309" s="38"/>
-      <c r="G309" s="109"/>
-      <c r="L309" s="109"/>
+      <c r="G309" s="113"/>
+      <c r="L309" s="113"/>
       <c r="M309" s="63"/>
-      <c r="N309" s="108"/>
+      <c r="N309" s="133"/>
       <c r="Q309" s="103"/>
       <c r="R309" s="91"/>
       <c r="S309" s="91"/>
@@ -26916,7 +26915,7 @@
       <c r="AJ309" s="39"/>
       <c r="AK309" s="39"/>
     </row>
-    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>380</v>
       </c>
@@ -26932,10 +26931,10 @@
       <c r="F310" s="6">
         <v>6</v>
       </c>
-      <c r="G310" s="109">
+      <c r="G310" s="113">
         <v>16</v>
       </c>
-      <c r="H310" s="109" t="b">
+      <c r="H310" s="113" t="b">
         <v>1</v>
       </c>
       <c r="I310" s="6">
@@ -26947,13 +26946,13 @@
       <c r="K310" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L310" s="109" t="s">
+      <c r="L310" s="113" t="s">
         <v>307</v>
       </c>
       <c r="M310" s="18">
         <v>11.5</v>
       </c>
-      <c r="N310" s="108" t="s">
+      <c r="N310" s="133" t="s">
         <v>17</v>
       </c>
       <c r="O310" s="84"/>
@@ -27018,14 +27017,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D311" s="34"/>
       <c r="E311" s="34"/>
-      <c r="G311" s="109"/>
-      <c r="H311" s="109"/>
-      <c r="L311" s="109"/>
+      <c r="G311" s="113"/>
+      <c r="H311" s="113"/>
+      <c r="L311" s="113"/>
       <c r="M311" s="63"/>
-      <c r="N311" s="108"/>
+      <c r="N311" s="133"/>
       <c r="Q311" s="103"/>
       <c r="R311" s="91"/>
       <c r="S311" s="91"/>
@@ -27040,7 +27039,7 @@
       <c r="AJ311" s="35"/>
       <c r="AK311" s="35"/>
     </row>
-    <row r="312" spans="1:40" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:40" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="6" t="s">
         <v>380</v>
       </c>
@@ -27053,10 +27052,10 @@
       <c r="F312" s="6">
         <v>2</v>
       </c>
-      <c r="G312" s="109">
+      <c r="G312" s="113">
         <v>15</v>
       </c>
-      <c r="H312" s="109" t="b">
+      <c r="H312" s="113" t="b">
         <v>0</v>
       </c>
       <c r="I312" s="6">
@@ -27068,13 +27067,13 @@
       <c r="K312" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L312" s="109" t="s">
+      <c r="L312" s="113" t="s">
         <v>308</v>
       </c>
       <c r="M312" s="67">
         <v>10.9</v>
       </c>
-      <c r="N312" s="111" t="s">
+      <c r="N312" s="135" t="s">
         <v>21</v>
       </c>
       <c r="O312" s="84">
@@ -27129,14 +27128,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:40" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
-      <c r="G313" s="125"/>
-      <c r="H313" s="125"/>
-      <c r="L313" s="125"/>
+      <c r="G313" s="128"/>
+      <c r="H313" s="128"/>
+      <c r="L313" s="128"/>
       <c r="M313" s="68"/>
-      <c r="N313" s="112"/>
+      <c r="N313" s="136"/>
       <c r="O313" s="95"/>
       <c r="P313" s="95"/>
       <c r="Q313" s="106"/>
@@ -27156,7 +27155,7 @@
       <c r="AJ313" s="15"/>
       <c r="AK313" s="15"/>
     </row>
-    <row r="314" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6" t="s">
         <v>381</v>
       </c>
@@ -27251,7 +27250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>381</v>
       </c>
@@ -27325,7 +27324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
         <v>381</v>
       </c>
@@ -27386,7 +27385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>381</v>
       </c>
@@ -27450,7 +27449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
         <v>381</v>
       </c>
@@ -27545,7 +27544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="42" t="s">
         <v>381</v>
       </c>
@@ -27641,7 +27640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
         <v>381</v>
       </c>
@@ -27736,7 +27735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="42" t="s">
         <v>381</v>
       </c>
@@ -27811,7 +27810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
         <v>381</v>
       </c>
@@ -27912,7 +27911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>381</v>
       </c>
@@ -27931,10 +27930,10 @@
       <c r="F323" s="6">
         <v>3</v>
       </c>
-      <c r="G323" s="109">
+      <c r="G323" s="113">
         <v>13</v>
       </c>
-      <c r="H323" s="109" t="b">
+      <c r="H323" s="113" t="b">
         <v>1</v>
       </c>
       <c r="I323" s="6">
@@ -27946,13 +27945,13 @@
       <c r="K323" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L323" s="109" t="s">
+      <c r="L323" s="113" t="s">
         <v>318</v>
       </c>
       <c r="M323" s="63">
         <v>10.55</v>
       </c>
-      <c r="N323" s="108" t="s">
+      <c r="N323" s="133" t="s">
         <v>6</v>
       </c>
       <c r="O323" s="84">
@@ -28016,14 +28015,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D324" s="29"/>
       <c r="E324" s="29"/>
-      <c r="G324" s="109"/>
-      <c r="H324" s="109"/>
-      <c r="L324" s="109"/>
+      <c r="G324" s="113"/>
+      <c r="H324" s="113"/>
+      <c r="L324" s="113"/>
       <c r="M324" s="63"/>
-      <c r="N324" s="108"/>
+      <c r="N324" s="133"/>
       <c r="Q324" s="103"/>
       <c r="R324" s="91"/>
       <c r="S324" s="91"/>
@@ -28039,7 +28038,7 @@
       <c r="AJ324" s="30"/>
       <c r="AK324" s="30"/>
     </row>
-    <row r="325" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>381</v>
       </c>
@@ -28097,7 +28096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="6" t="s">
         <v>381</v>
       </c>
@@ -28198,7 +28197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>381</v>
       </c>
@@ -28253,7 +28252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="6" t="s">
         <v>381</v>
       </c>
@@ -28311,7 +28310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>381</v>
       </c>
@@ -28369,7 +28368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="6" t="s">
         <v>381</v>
       </c>
@@ -28433,7 +28432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
         <v>381</v>
       </c>
@@ -28502,7 +28501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:40" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="10" t="s">
         <v>381</v>
       </c>
@@ -28567,7 +28566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="42" t="s">
         <v>29</v>
       </c>
@@ -28660,7 +28659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A334" s="6" t="s">
         <v>29</v>
       </c>
@@ -28755,7 +28754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6" t="s">
         <v>29</v>
       </c>
@@ -28835,7 +28834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="6" t="s">
         <v>29</v>
       </c>
@@ -28933,7 +28932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6" t="s">
         <v>29</v>
       </c>
@@ -28994,7 +28993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6" t="s">
         <v>29</v>
       </c>
@@ -29049,7 +29048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
         <v>29</v>
       </c>
@@ -29141,7 +29140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="42" t="s">
         <v>29</v>
       </c>
@@ -29232,7 +29231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6" t="s">
         <v>29</v>
       </c>
@@ -29324,7 +29323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="6" t="s">
         <v>29</v>
       </c>
@@ -29401,7 +29400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="6" t="s">
         <v>29</v>
       </c>
@@ -29487,7 +29486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:40" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="21" t="s">
         <v>29</v>
       </c>
@@ -29564,7 +29563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="6" t="s">
         <v>29</v>
       </c>
@@ -29604,10 +29603,10 @@
       <c r="N345" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="O345" s="138">
+      <c r="O345" s="110">
         <v>354</v>
       </c>
-      <c r="P345" s="138">
+      <c r="P345" s="110">
         <v>11</v>
       </c>
       <c r="Q345" s="99" t="s">
@@ -29667,7 +29666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="6" t="s">
         <v>29</v>
       </c>
@@ -29741,7 +29740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:40" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:40" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="42" t="s">
         <v>29</v>
       </c>
@@ -29837,7 +29836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="6" t="s">
         <v>29</v>
       </c>
@@ -29898,7 +29897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="6" t="s">
         <v>29</v>
       </c>
@@ -29969,7 +29968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A350" s="6" t="s">
         <v>29</v>
       </c>
@@ -29988,7 +29987,7 @@
       <c r="F350" s="6">
         <v>5</v>
       </c>
-      <c r="G350" s="109">
+      <c r="G350" s="113">
         <v>15</v>
       </c>
       <c r="H350" s="6" t="b">
@@ -30003,13 +30002,13 @@
       <c r="K350" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L350" s="109" t="s">
+      <c r="L350" s="113" t="s">
         <v>342</v>
       </c>
       <c r="M350" s="18">
         <v>11.42</v>
       </c>
-      <c r="N350" s="108" t="s">
+      <c r="N350" s="133" t="s">
         <v>4</v>
       </c>
       <c r="O350" s="84">
@@ -30076,13 +30075,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D351" s="38"/>
       <c r="E351" s="38"/>
-      <c r="G351" s="109"/>
-      <c r="L351" s="109"/>
+      <c r="G351" s="113"/>
+      <c r="L351" s="113"/>
       <c r="M351" s="63"/>
-      <c r="N351" s="108"/>
+      <c r="N351" s="133"/>
       <c r="Q351" s="103"/>
       <c r="R351" s="91"/>
       <c r="S351" s="91"/>
@@ -30099,7 +30098,7 @@
       <c r="AJ351" s="39"/>
       <c r="AK351" s="39"/>
     </row>
-    <row r="352" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6" t="s">
         <v>29</v>
       </c>
@@ -30194,7 +30193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6" t="s">
         <v>29</v>
       </c>
@@ -30286,7 +30285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A354" s="6" t="s">
         <v>29</v>
       </c>
@@ -30378,7 +30377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>29</v>
       </c>
@@ -30443,7 +30442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A356" s="6" t="s">
         <v>29</v>
       </c>
@@ -30517,7 +30516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>29</v>
       </c>
@@ -30575,7 +30574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A358" s="6" t="s">
         <v>29</v>
       </c>
@@ -30630,7 +30629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>29</v>
       </c>
@@ -30716,7 +30715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A360" s="6" t="s">
         <v>29</v>
       </c>
@@ -30777,7 +30776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A361" s="6" t="s">
         <v>29</v>
       </c>
@@ -30869,7 +30868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A362" s="6" t="s">
         <v>29</v>
       </c>
@@ -30904,8 +30903,8 @@
         <v>9.1</v>
       </c>
       <c r="N362" s="84"/>
-      <c r="O362" s="137"/>
-      <c r="P362" s="137"/>
+      <c r="O362" s="109"/>
+      <c r="P362" s="109"/>
       <c r="Q362" s="99" t="s">
         <v>13</v>
       </c>
@@ -30941,7 +30940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A363" s="6" t="s">
         <v>29</v>
       </c>
@@ -31027,7 +31026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A364" s="6" t="s">
         <v>29</v>
       </c>
@@ -31101,7 +31100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:40" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A365" s="10" t="s">
         <v>29</v>
       </c>
@@ -31169,7 +31168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A366" s="42" t="s">
         <v>26</v>
       </c>
@@ -31188,10 +31187,10 @@
       <c r="F366" s="42">
         <v>3</v>
       </c>
-      <c r="G366" s="122">
-        <v>10</v>
-      </c>
-      <c r="H366" s="122" t="b">
+      <c r="G366" s="117">
+        <v>10</v>
+      </c>
+      <c r="H366" s="117" t="b">
         <v>1</v>
       </c>
       <c r="I366" s="42">
@@ -31203,13 +31202,13 @@
       <c r="K366" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L366" s="122" t="s">
+      <c r="L366" s="117" t="s">
         <v>357</v>
       </c>
-      <c r="M366" s="120">
+      <c r="M366" s="118">
         <v>10.31</v>
       </c>
-      <c r="N366" s="113" t="s">
+      <c r="N366" s="137" t="s">
         <v>0</v>
       </c>
       <c r="O366" s="84"/>
@@ -31260,21 +31259,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" s="42"/>
       <c r="B367" s="42"/>
       <c r="C367" s="42"/>
       <c r="D367" s="43"/>
       <c r="E367" s="43"/>
       <c r="F367" s="42"/>
-      <c r="G367" s="123"/>
-      <c r="H367" s="123"/>
+      <c r="G367" s="114"/>
+      <c r="H367" s="114"/>
       <c r="I367" s="42"/>
       <c r="J367" s="42"/>
       <c r="K367" s="42"/>
-      <c r="L367" s="123"/>
-      <c r="M367" s="121"/>
-      <c r="N367" s="113"/>
+      <c r="L367" s="114"/>
+      <c r="M367" s="119"/>
+      <c r="N367" s="137"/>
       <c r="O367" s="85"/>
       <c r="P367" s="85"/>
       <c r="Q367" s="97"/>
@@ -31302,7 +31301,7 @@
       <c r="AJ367" s="47"/>
       <c r="AK367" s="47"/>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A368" s="6" t="s">
         <v>26</v>
       </c>
@@ -31340,8 +31339,8 @@
         <v>9.36</v>
       </c>
       <c r="N368" s="84"/>
-      <c r="O368" s="137"/>
-      <c r="P368" s="137"/>
+      <c r="O368" s="109"/>
+      <c r="P368" s="109"/>
       <c r="Q368" s="99" t="s">
         <v>22</v>
       </c>
@@ -31378,7 +31377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A369" s="6" t="s">
         <v>26</v>
       </c>
@@ -31445,7 +31444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A370" s="6" t="s">
         <v>26</v>
       </c>
@@ -31518,7 +31517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A371" s="21" t="s">
         <v>26</v>
       </c>
@@ -31597,7 +31596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A372" s="6" t="s">
         <v>26</v>
       </c>
@@ -31674,7 +31673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A373" s="6" t="s">
         <v>26</v>
       </c>
@@ -31748,7 +31747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A374" s="6" t="s">
         <v>26</v>
       </c>
@@ -31803,7 +31802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" s="21" t="s">
         <v>26</v>
       </c>
@@ -31882,7 +31881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A376" s="6" t="s">
         <v>26</v>
       </c>
@@ -31937,7 +31936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>26</v>
       </c>
@@ -32005,7 +32004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
         <v>26</v>
       </c>
@@ -32063,7 +32062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>26</v>
       </c>
@@ -32098,8 +32097,8 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="N379" s="84"/>
-      <c r="O379" s="137"/>
-      <c r="P379" s="137"/>
+      <c r="O379" s="109"/>
+      <c r="P379" s="109"/>
       <c r="Q379" s="99" t="s">
         <v>6</v>
       </c>
@@ -32132,7 +32131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A380" s="6" t="s">
         <v>26</v>
       </c>
@@ -32233,7 +32232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>26</v>
       </c>
@@ -32310,7 +32309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:40" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A382" s="21" t="s">
         <v>26</v>
       </c>
@@ -32389,7 +32388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:40" s="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A383" s="42" t="s">
         <v>26</v>
       </c>
@@ -32482,7 +32481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A384" s="6" t="s">
         <v>26</v>
       </c>
@@ -32559,7 +32558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>26</v>
       </c>
@@ -32578,7 +32577,7 @@
       <c r="F385" s="6">
         <v>6</v>
       </c>
-      <c r="G385" s="109">
+      <c r="G385" s="113">
         <v>17</v>
       </c>
       <c r="H385" s="6" t="b">
@@ -32593,13 +32592,13 @@
       <c r="K385" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L385" s="109" t="s">
+      <c r="L385" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="M385" s="135">
+      <c r="M385" s="115">
         <v>11.94</v>
       </c>
-      <c r="N385" s="108" t="s">
+      <c r="N385" s="133" t="s">
         <v>3</v>
       </c>
       <c r="O385" s="84">
@@ -32666,11 +32665,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G386" s="109"/>
-      <c r="L386" s="109"/>
-      <c r="M386" s="110"/>
-      <c r="N386" s="108"/>
+    <row r="386" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="G386" s="113"/>
+      <c r="L386" s="113"/>
+      <c r="M386" s="112"/>
+      <c r="N386" s="133"/>
       <c r="O386" s="87"/>
       <c r="P386" s="87"/>
       <c r="Q386" s="98"/>
@@ -32695,7 +32694,7 @@
       <c r="AJ386" s="14"/>
       <c r="AK386" s="14"/>
     </row>
-    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>26</v>
       </c>
@@ -32714,7 +32713,7 @@
       <c r="F387" s="6">
         <v>3</v>
       </c>
-      <c r="G387" s="109">
+      <c r="G387" s="113">
         <v>16</v>
       </c>
       <c r="H387" s="6" t="b">
@@ -32729,13 +32728,13 @@
       <c r="K387" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L387" s="109" t="s">
+      <c r="L387" s="113" t="s">
         <v>375</v>
       </c>
-      <c r="M387" s="110">
+      <c r="M387" s="112">
         <v>10.3</v>
       </c>
-      <c r="N387" s="108" t="s">
+      <c r="N387" s="133" t="s">
         <v>6</v>
       </c>
       <c r="O387" s="84">
@@ -32802,11 +32801,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G388" s="109"/>
-      <c r="L388" s="109"/>
-      <c r="M388" s="110"/>
-      <c r="N388" s="108"/>
+    <row r="388" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="G388" s="113"/>
+      <c r="L388" s="113"/>
+      <c r="M388" s="112"/>
+      <c r="N388" s="133"/>
       <c r="O388" s="87"/>
       <c r="P388" s="87"/>
       <c r="Q388" s="98"/>
@@ -32835,7 +32834,7 @@
       <c r="AJ388" s="14"/>
       <c r="AK388" s="14"/>
     </row>
-    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>26</v>
       </c>
@@ -32918,7 +32917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A390" s="6" t="s">
         <v>26</v>
       </c>
@@ -32983,7 +32982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>26</v>
       </c>
@@ -33039,7 +33038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A392" s="6" t="s">
         <v>26</v>
       </c>
@@ -33136,21 +33135,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN392">
-    <filterColumn colId="12">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="vide"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="16">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="22" showButton="0"/>
     <filterColumn colId="23" showButton="0"/>
     <filterColumn colId="24" showButton="0"/>
@@ -33168,6 +33152,164 @@
     <filterColumn colId="38" showButton="0"/>
   </autoFilter>
   <mergeCells count="182">
+    <mergeCell ref="N385:N386"/>
+    <mergeCell ref="N387:N388"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="N283:N284"/>
+    <mergeCell ref="N290:N291"/>
+    <mergeCell ref="N292:N293"/>
+    <mergeCell ref="N308:N309"/>
+    <mergeCell ref="N310:N311"/>
+    <mergeCell ref="N312:N313"/>
+    <mergeCell ref="N323:N324"/>
+    <mergeCell ref="N350:N351"/>
+    <mergeCell ref="N366:N367"/>
+    <mergeCell ref="N212:N213"/>
+    <mergeCell ref="N222:N223"/>
+    <mergeCell ref="N225:N226"/>
+    <mergeCell ref="N228:N229"/>
+    <mergeCell ref="N241:N242"/>
+    <mergeCell ref="N263:N264"/>
+    <mergeCell ref="N272:N273"/>
+    <mergeCell ref="M272:M273"/>
+    <mergeCell ref="N281:N282"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="N161:N162"/>
+    <mergeCell ref="N195:N196"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="N69:N71"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="H323:H324"/>
+    <mergeCell ref="L323:L324"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="L292:L293"/>
+    <mergeCell ref="G292:G293"/>
+    <mergeCell ref="M69:M71"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M195:M196"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="H281:H282"/>
+    <mergeCell ref="G281:G282"/>
+    <mergeCell ref="L249:L250"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="G249:G250"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="L350:L351"/>
+    <mergeCell ref="G350:G351"/>
+    <mergeCell ref="G283:G284"/>
+    <mergeCell ref="L283:L284"/>
+    <mergeCell ref="L312:L313"/>
+    <mergeCell ref="H312:H313"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="H263:H264"/>
+    <mergeCell ref="L263:L264"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="G308:G309"/>
+    <mergeCell ref="L308:L309"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="L290:L291"/>
+    <mergeCell ref="L281:L282"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="AK69:AK70"/>
+    <mergeCell ref="AI69:AI70"/>
+    <mergeCell ref="AJ69:AJ70"/>
+    <mergeCell ref="L366:L367"/>
+    <mergeCell ref="M366:M367"/>
+    <mergeCell ref="H366:H367"/>
+    <mergeCell ref="G366:G367"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="AL69:AL70"/>
+    <mergeCell ref="AM69:AM70"/>
+    <mergeCell ref="AN69:AN70"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G241:G242"/>
+    <mergeCell ref="L241:L242"/>
+    <mergeCell ref="L228:L229"/>
+    <mergeCell ref="G228:G229"/>
+    <mergeCell ref="L272:L273"/>
+    <mergeCell ref="G272:G273"/>
+    <mergeCell ref="H272:H273"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="H222:H223"/>
+    <mergeCell ref="L222:L223"/>
+    <mergeCell ref="M212:M213"/>
+    <mergeCell ref="L212:L213"/>
+    <mergeCell ref="G212:G213"/>
+    <mergeCell ref="M161:M162"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G222:G223"/>
     <mergeCell ref="M387:M388"/>
     <mergeCell ref="L385:L386"/>
     <mergeCell ref="L387:L388"/>
@@ -33192,164 +33334,6 @@
     <mergeCell ref="M385:M386"/>
     <mergeCell ref="G90:G91"/>
     <mergeCell ref="L99:L100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G241:G242"/>
-    <mergeCell ref="L241:L242"/>
-    <mergeCell ref="L228:L229"/>
-    <mergeCell ref="G228:G229"/>
-    <mergeCell ref="L272:L273"/>
-    <mergeCell ref="G272:G273"/>
-    <mergeCell ref="H272:H273"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="H222:H223"/>
-    <mergeCell ref="L222:L223"/>
-    <mergeCell ref="M212:M213"/>
-    <mergeCell ref="L212:L213"/>
-    <mergeCell ref="G212:G213"/>
-    <mergeCell ref="M161:M162"/>
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G222:G223"/>
-    <mergeCell ref="L366:L367"/>
-    <mergeCell ref="M366:M367"/>
-    <mergeCell ref="H366:H367"/>
-    <mergeCell ref="G366:G367"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="AL69:AL70"/>
-    <mergeCell ref="AM69:AM70"/>
-    <mergeCell ref="AN69:AN70"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="AK69:AK70"/>
-    <mergeCell ref="AI69:AI70"/>
-    <mergeCell ref="AJ69:AJ70"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="L350:L351"/>
-    <mergeCell ref="G350:G351"/>
-    <mergeCell ref="G283:G284"/>
-    <mergeCell ref="L283:L284"/>
-    <mergeCell ref="L312:L313"/>
-    <mergeCell ref="H312:H313"/>
-    <mergeCell ref="G312:G313"/>
-    <mergeCell ref="H263:H264"/>
-    <mergeCell ref="L263:L264"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="G308:G309"/>
-    <mergeCell ref="L308:L309"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="L290:L291"/>
-    <mergeCell ref="L281:L282"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="H323:H324"/>
-    <mergeCell ref="L323:L324"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="L292:L293"/>
-    <mergeCell ref="G292:G293"/>
-    <mergeCell ref="M69:M71"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M195:M196"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="H281:H282"/>
-    <mergeCell ref="G281:G282"/>
-    <mergeCell ref="L249:L250"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="G249:G250"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="N69:N71"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="N90:N91"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="N161:N162"/>
-    <mergeCell ref="N195:N196"/>
-    <mergeCell ref="N385:N386"/>
-    <mergeCell ref="N387:N388"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="N283:N284"/>
-    <mergeCell ref="N290:N291"/>
-    <mergeCell ref="N292:N293"/>
-    <mergeCell ref="N308:N309"/>
-    <mergeCell ref="N310:N311"/>
-    <mergeCell ref="N312:N313"/>
-    <mergeCell ref="N323:N324"/>
-    <mergeCell ref="N350:N351"/>
-    <mergeCell ref="N366:N367"/>
-    <mergeCell ref="N212:N213"/>
-    <mergeCell ref="N222:N223"/>
-    <mergeCell ref="N225:N226"/>
-    <mergeCell ref="N228:N229"/>
-    <mergeCell ref="N241:N242"/>
-    <mergeCell ref="N263:N264"/>
-    <mergeCell ref="N272:N273"/>
-    <mergeCell ref="M272:M273"/>
-    <mergeCell ref="N281:N282"/>
   </mergeCells>
   <conditionalFormatting sqref="M1:M4 M161 M72:M74 M92:M99 M243:M249 M230:M241 M40:M42 M387 M389:M1048576 M6:M8 M19:M23 M25:M29 M274:M281 M368:M385 M163:M195 M224:M225 M31 M214:M222 M44:M61 M10:M17 M87:M90 M157 M159 M76:M80 M197:M212 M283 M325:M350 M33:M38 M63:M69 M227:M228 M312 M261:M263 M251:M259 M352:M366 M82:M85 M285:M290 M314:M323 M265:M272 M310 M292 M294:M308 M106:M155 M101:M104">
     <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
